--- a/帳票設計_グリット右.xlsx
+++ b/帳票設計_グリット右.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="18315" windowHeight="8505"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>10010_経営計画総括表.xlsx</t>
     <phoneticPr fontId="1"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>【画】月次・【画】年次</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -442,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D11"/>
+  <dimension ref="B3:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -546,6 +550,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/帳票設計_グリット右.xlsx
+++ b/帳票設計_グリット右.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>10010_経営計画総括表.xlsx</t>
     <phoneticPr fontId="1"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>【画】月次・【画】年次</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaaa</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -446,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D12"/>
+  <dimension ref="B3:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -555,6 +559,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/帳票設計_グリット右.xlsx
+++ b/帳票設計_グリット右.xlsx
@@ -102,7 +102,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>aaaaa</t>
+    <t>hogehoge</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -453,7 +453,7 @@
   <dimension ref="B3:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
